--- a/project/Python/owlapptest/saveexcel/maps.xlsx
+++ b/project/Python/owlapptest/saveexcel/maps.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvqih\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76141FD-80AD-41C2-BE9E-C0A4C6C27E29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="maps" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="maps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>序号</t>
   </si>
@@ -263,6 +258,9 @@
     <t>弗格体育场</t>
   </si>
   <si>
+    <t>lucioball</t>
+  </si>
+  <si>
     <t>0x08000000000006B5</t>
   </si>
   <si>
@@ -299,6 +297,9 @@
     <t>生态监测站：南极洲</t>
   </si>
   <si>
+    <t>arena</t>
+  </si>
+  <si>
     <t>0x08000000000006D3</t>
   </si>
   <si>
@@ -326,9 +327,6 @@
     <t>墓园</t>
   </si>
   <si>
-    <t>arena</t>
-  </si>
-  <si>
     <t>0x080000000000070C</t>
   </si>
   <si>
@@ -572,6 +570,9 @@
     <t>阿育陀耶</t>
   </si>
   <si>
+    <t>ctf</t>
+  </si>
+  <si>
     <t>0x08000000000007A4</t>
   </si>
   <si>
@@ -599,9 +600,6 @@
     <t>釜山</t>
   </si>
   <si>
-    <t>lucioball</t>
-  </si>
-  <si>
     <t>0x08000000000007F4</t>
   </si>
   <si>
@@ -702,61 +700,28 @@
   </si>
   <si>
     <t>0x0800000000000A9E</t>
-  </si>
-  <si>
-    <t>AB点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占点推车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -772,34 +737,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="highlight" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="highlight" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1087,22 +1043,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="5"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="6" min="6" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,8 +1084,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1141,16 +1103,9 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1168,16 +1123,9 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1195,15 +1143,9 @@
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1221,16 +1163,9 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1248,15 +1183,9 @@
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1274,15 +1203,9 @@
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1301,8 +1224,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1321,8 +1244,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1341,8 +1264,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1361,8 +1284,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1377,10 +1300,10 @@
       <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="F12" s="2" t="s"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1398,10 +1321,9 @@
       <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1420,8 +1342,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1436,10 +1358,10 @@
       <c r="E15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="F15" s="2" t="s"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1458,8 +1380,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1478,8 +1400,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1498,8 +1420,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1518,8 +1440,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1534,14 +1456,16 @@
       <c r="E20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1556,12 +1480,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>55</v>
@@ -1576,86 +1500,88 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+        <v>84</v>
+      </c>
+      <c r="F23" s="2" t="s"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2" t="s"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1670,362 +1596,392 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+        <v>92</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="F43" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+        <v>154</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+        <v>158</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>26</v>
@@ -2040,148 +1996,152 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+        <v>175</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+        <v>183</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>67</v>
@@ -2196,90 +2156,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+        <v>131</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>71</v>
@@ -2294,72 +2256,72 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
@@ -2374,186 +2336,190 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+        <v>207</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+        <v>213</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+        <v>221</v>
+      </c>
+      <c r="F73" s="2" t="s"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>47</v>
@@ -2568,60 +2534,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+        <v>226</v>
+      </c>
+      <c r="F75" s="2" t="s"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>